--- a/500all/speech_level/speeches_CHRG-114hhrg94229.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94229.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Good afternoon. The Subcommittee on Strategic Forces will come to order. I want to welcome you to our hearing on the President's fiscal year 2016 budget request for atomic energy defense activities at the Department of Energy.    I want to thank our witnesses for being here today. We know how much work goes into preparing for these hearings, and we thank you for putting that time and energy into this endeavor. I want to welcome our guests. We have Lieutenant General Frank Klotz, Administrator of National Security Administration--National Nuclear Security [NNSA], a little difference; Mark Whitney, Principal Deputy Assistant Secretary for Environmental Management [EM], U.S. Department of Energy; and Ms. Jessie Hill Roberson, Vice Chairman, Defense Nuclear Facilities Safety Board [DNFSB].    General Klotz, you have a few very able folks in support of you today and I want to recognize them: Dr. Don Cook, Ms. Anne Harrington, and Admiral John Richardson. If any of our members have questions directly for them later in the hearing, we will ensure that they can step up to the table and answer those as needed.    Before I hand the floor over to the ranking member, let me briefly highlight just a few key issues for today's hearing. First, let's be clear on the Nation's defense priorities. Last November, then-Secretary of Defense Chuck Hagel said this: ``Our nuclear deterrent plays a critical role in assuring U.S. national security and it is DOD'S highest priority mission. No other capability we have is more important.'' This is the correct priority, but we must remember that fulfilling the nuclear deterrence mission is the shared responsibility of both DOD [Department of Defense] and DOE [Department of Energy]. It is the people, programs, and infrastructure at NNSA's nuclear enterprise that provides our Nation with that deterrent.    The subcommittee will take a detailed look at NNSA's budget request and scrub it hard to ensure it is meeting the military's priorities. In the fiscal environment we are facing, we must prioritize the core mission of the agency while finding efficiencies that can be directly applied to that mission.    This is a strong budget request for NNSA, but I fear it may have only kicked the hardest choices over to Congress. And we must hear from our witnesses about how devastating sequestration, or Budget Control Act, funding levels would be on DOE's defense programs in both NNSA and Environmental Management. Allowing sequestration to hit us again in fiscal year 2016 would be like designing a nuclear hand grenade--just about the dumbest thing we could do.    Moving to governance and management of DOE and NNSA, we have received a report of the Mies/Augustine Advisory Panel, and I look forward to receiving General Klotz's response to that report. I agree with a lot of what the advisory panel recommended, but not all of it. General, I know there is much you and I agree on in this area as well. I hope to explore your thoughts on where we can work together to fix the longstanding problems related to governance and management. We have to get on top of these problems if the NNSA is going to be successful in the long-term. Leadership and accountability will be the key to this.    Let me end on a bright note. This year, the B61 life extension program continues to execute on time and on budget. General, please tell the whole NNSA team to keep up the good work. This is an important step in rebuilding trust and confidence with Congress and the American people and our allies.    Thank you again to our witnesses. I look forward to the discussion. With that, let me turn it over to my friend and colleague from Tennessee, the ranking member, Mr. Cooper, for any opening statement he may have.    [The prepared statement of Mr. Rogers can be found in the Appendix on page 23.]</t>
   </si>
   <si>
     <t>400081</t>
   </si>
   <si>
-    <t>Jim Cooper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you so much, Mr. Chairman. I, too, welcome the witnesses, and it is a pleasure to work with you on these issues of vital importance to our national security. As you noted, no weapons are more important or more dangerous than these, and we need to make sure that we are doing the best we possibly can to keep them safe, secure, and reliable. I look forward to the testimony of the witnesses.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitney. Good afternoon, Chairman Rogers, Ranking Member Cooper, and members of the subcommittee. I am pleased to be here today to represent the Department of Energy's Office of Environmental Management, and to discuss the positive program achievements to date and what we plan to accomplish under the President's fiscal year 2016 budget request.    Our request for $5.818 billion will allow the EM program to continue to make safe cleanup of the environmental legacy a priority, a legacy that was brought about from five decades of nuclear weapons development and government-sponsored nuclear energy research. The request includes $5.055 billion for defense environmental cleanup activities; an additional $472 million for the defense contribution to the Uranium Enrichment Decontamination and Decommissioning Fund; a total of $542 million for the Uranium Enrichment Decontamination and Decommissioning Fund cleanup activities; and $220 million for non-defense environmental cleanup activities.    We continue to make significant cleanup progress. We have produced nearly 4,000 canisters of vitrified high-level waste at Savannah River Site in South Carolina, converting it to a solid glass form suitable for long-term storage or permanent disposal. This is about half the sludge in the Savannah River Site tanks.    At Hanford, we have completed the bulk of the river corridor cleanup project, including more than 500 facilities and 1,000 remediation sites.    The fiscal year 2016 budget request will allow us to continue to make significant progress in our ongoing cleanup priorities of liquid tank waste treatment, and recovery of the Waste Isolation Pilot Plant [WIPP]. For example, the Idaho National Laboratory, the request supports operations of the Integrative Waste Treatment Unit. It also covers and supports cleaning and grouting activities to support closing of the final four tanks there. It also supports high-level waste tank progress at the Savannah River Site, including producing 130 canisters of vitrified waste derived from tanks and processed through the Defense Waste Processing Facility.    The 2016 request will allow us to expedite tank waste treatment at the Office of River Protection in Hanford through the direct-feed low-activity waste approach, and this allows us to continue designing the low-activity waste treatment system, and continuing construction of the low-activity waste facility, the analytical laboratory, and balance of the facilities at the Waste Treatment Plant.    The 2016 request also provides funding in accordance with the Waste Isolation Pilot Plant recovery plan. There are many sites around the EM complex, of course, that depend on the WIPP facility and that have transuranic waste at its plant for disposal.    So that resumption of operations at WIPP is a priority for us, and we will resume waste emplacement activities in 2016. The request also completes major facility clean-out and demolition projects, including the Plutonium Finishing Plant at Hanford.    In closing, I am honored to be here today representing the Office of Environmental Management. We are committed to achieving our mission, and will continue to apply innovative environmental cleanup strategies to complete work safely and efficiently, thereby demonstrating value to the American taxpayer.    Thank you, and I would be pleased to answer any questions that you may have.    [The prepared statement of Mr. Whitney can be found in the Appendix on page 40.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Whitney.    Ms. Roberson, you are recognized for 3 minutes to summarize your opening statement.</t>
   </si>
   <si>
-    <t>Roberson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Roberson. Thank you, Chairman Rogers and Ranking Member Cooper, and other members of the subcommittee. I am the Vice Chairman of the Defense Nuclear Facility Safety Board, and I would like to acknowledge the other two members sitting directly behind me, Mr. Sullivan and Mr. Santos.    Last year's radioactive release at the Waste Isolation Pilot Plant demonstrated the significant impact likely to result from a radiological incident at any DOE defense nuclear facility. Waste disposal operations have already been shut down for over 13 months. This has impacted cleanup activities across DOE's entire defense nuclear complex, and illustrates that even activities judged to be relatively low risk can still have major safety consequences and large impacts on DOE's ability to accomplish its mission when radioactive materials are involved.    The board is the only agency that provides independent safety oversight of DOE's defense nuclear facilities. The board's budget is devoted to maintaining and supporting an expert staff of engineers and scientists, nearly all of whom have advanced technical degrees, to support us in accomplishing our highly specialized work.    The President's budget request for fiscal year 2016 includes $29.15 million in new budget authority for the board. It will support a planned staff of 125 personnel. This level of staffing is needed to provide sufficient independent safety oversight of DOE's defense nuclear complex, given the pace and scope of DOE's activities.    The board provides safety oversight of a multitude of operations critical to national defense. These operations include assembly and disassembly of nuclear weapons, fabrication of plutonium pits and weapons components, production and recycling of tritium, nuclear criticality experiments, sub-critical experiments, and a host of activities to address the radioactive legacy resulting from 70 years of nuclear weapons operations.    The board supports and closely oversees DOE and NNSA's efforts to develop new defense nuclear facilities that integrate safety into their design at the very earliest stages. The delays in NNSA's programs to modernize its uranium and plutonium capabilities require the board to provide continued safety oversight of ongoing defense programs work, and aging nuclear facilities that do not meet modern safety standards.    Given the age and condition of many of DOE's defense nuclear facilities, the board is placing particular emphasis on emergency preparedness and accident response capabilities across the complex.    Let me add in closing that the board and DOE together have built a constructive working relationship. All board members, myself, Mr. Sullivan, and Mr. Santos, understand that a safe nuclear security enterprise is our priority.    That concludes my statement. Thank you.    [The prepared statement of Ms. Roberson can be found in the Appendix on page 50.]</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman. And thank you for the distinguished panel being here today and testifying.    General, I think it was last year we got a report from Secretary of Defense Hagel indicating that our requirements for our nuclear capacity was 50 to 80 plutonium pits per year. Is that still the requirement?    General Klotz. That is the objective which we are working for as part of a comprehensive plutonium strategy.    Many, many years ago, when we had the facility at Rocky Flats in California, we had the ability to produce thousands of nuclear weapon pits each year. Of course, that was at the height of the Cold War, when our stockpile was much, much larger than it is today. That facility was shut down. We moved--or tried to demonstrate the ability to develop pits, manufacture pits, fabricate pits at Los Alamos National Laboratory in New Mexico. And we are going through a sustained process of recreating the ability to produce a smaller number of pits per year, ultimately up to 50 to 80 per year, in order to support life extension programs that we see coming in the 2020 to 2030 timeframe as we move there.</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t xml:space="preserve">    Mr. Bridenstine. Will it happen in fiscal year 2015? I guess, will you commit that in fiscal year 2015, fiscal year 2016 we will see movements for the next steps in this program?    General Klotz. We have already had some fairly significant movements in the W80, we call it the W80-4 life extension program [LEP], which will be the warhead that the Nuclear Weapons Council agreed would be the one we would field with the Air Force's long-range standoff capability. We are moving towards----</t>
   </si>
   <si>
-    <t>Cook</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Cook. 6.2 on July 1.    General Klotz. So later this year we will take the next step in that process. So this is something which we take very, very seriously.</t>
   </si>
   <si>
@@ -193,9 +175,6 @@
     <t>412382</t>
   </si>
   <si>
-    <t>John Garamendi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you, Mr. Chairman. And, gentlemen, thank you for your work.    Just to continue following up on the previous questions, it looks like we are somewhere north of $17 billion for the W80-4 nuclear warhead LEP program, and the cruise missile that goes with it. You have accelerated this discussion by, I think, an incomplete answer. Why was the 2-year acceleration required?    General Klotz. The acceleration, moving it up 2 years from 2027 to 2025 for the first production unit was taken largely at the request of the Department of Defense, U.S. Strategic Command, and the Air Force for an early delivery of the capability which the long-range standoff system represents.    As Admiral Haney, the commander of U.S. Strategic Command, has said in open testimony, basically it reflects two concerns: One is the increasing sophistication of air defenses around the world; and the second is some concerns about the aging of the missile, that is the current air-launched cruise missile.    So they felt it was prudent from a military requirements point of view to move that up. And we support them on that. And, in fact, perhaps more detail than is needed, but it actually fits in very, very nicely with our work schedule and it will allow us to have sort of a smoother approach to how we do the life extension programs over an extended period of time.</t>
   </si>
   <si>
@@ -238,18 +217,12 @@
     <t xml:space="preserve">    Mr. Garamendi. And I will come back. Thank you.</t>
   </si>
   <si>
-    <t>Frelinghuysen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Frelinghuysen. Chair now recognizes the gentleman from Colorado, Mr. Lamborn, for 5 minutes.</t>
   </si>
   <si>
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman. Thank all for being here. Thank you for your service to our country. And I am just going to jump right in, General Klotz. You have talked about the responsive infrastructure and you have been asked about that. Isn't that lacking, because there is a key uranium facility and a key plutonium facility that need to be planned and built, and we are not doing that?    General Klotz. We could take--we are working on both of those, and we can take them separately. On the plutonium side, as I indicated earlier in an earlier response, we had the capability at one time at Rocky Flats in Colorado to produce literally thousands of pits per year for a much larger stockpile than we now have. We no longer have that kind of capacity, and we foresee a need in the future for being able to produce a greater number of pits than we can do on basically a handful a year now at Los Alamos. So we are building up that capability.    What has changed from the past is, at one time we were looking at constructing one large facility to replace an aging facility where we did analytical chemistry and material characterization related to plutonium at Los Alamos, and now we have adopted a more modular approach, re-purposing some existing facilities, moving equipment around, and beginning the process of design for some external modules, which will allow us to increase the capacity of space that we have. So that is underway. We have got money in the budget, we have an ask and a request for that.</t>
   </si>
   <si>
@@ -274,9 +247,6 @@
     <t xml:space="preserve">    Mr. Lamborn. Okay. I will just ask this question. And thank you, Mr. Chairman, I have to run to the floor on what they are discussing right now, but my question is this: On low-enriched uranium, there are some who talk about, well, that can be used as a substitute for highly enriched uranium. Is there really any promising future to a military capability for low-enriched uranium?</t>
   </si>
   <si>
-    <t>Richardson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Richardson. Sir, thank you very much for your kind words and thank you for the question. We do produce a report to Congress about the feasibility of using low-enriched uranium. I have a copy of that report here which I submitted in January of 2014. And with the current state of technology right now, if we were to substitute low-enriched uranium, it would only be even technically considered for an aircraft carrier application.    And, because of the reduced energy in the low-enriched uranium, with the current technology, we would introduce another refueling event in the life of that carrier. That refueling event would come at a cost of about a billion dollars and would remove that carrier from being at sea while it comes into the shipyard to do that refueling operation as well.    We have done some recent exploratory work, and, you know, the potential exists that we could develop an advanced fuel system that might increase uranium loading and make low-enriched uranium possible while still meeting, you know, some very rigorous performance requirements for naval reactors on nuclear-powered warships. By no means is success assured by that.</t>
   </si>
   <si>
@@ -466,9 +436,6 @@
     <t>400232</t>
   </si>
   <si>
-    <t>Rick Larsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larsen. General Klotz, what are the risks of NNSA modernization plan, including executing 4-5 concurrent life-extension programs and overseeing major construction projects at Y-12 and Los Alamos National Laboratory in the 2020s?    General Klotz. NNSA has developed long term modernization efforts for the nuclear security enterprise described in the FY 2016 Stockpile Stewardship and Management Plan. Modernization efforts for warheads through approved Life Extension Programs face a number of risks. First, the ability to certify designs that include new or updated material combinations or surety features is a challenge for life extension programs in the absence of underground testing. To address this challenge, the national security laboratories have improved their fundamental understanding of physics package interactions through numerous enhanced physics experiments, greater computing power, and advanced simulations. Second, NNSA must mature technologies and components to transform the stockpile over the next twenty years. Technology maturation enables development and delivery of design-to-manufacturing capabilities to meeting current and future nuclear weapons needs for the Nation's stockpile. NNSA uses the Component Maturation Framework, which is a portfolio management tool used to integrate preliminary scope, proposed technology and manufacturing readiness levels, and planning estimates, to inform decisions on component development, technology maturation and timely insertion. NNSA is establishing plans to mature technologies sufficiently in advance of planned insertion points to cost-effectively minimize risk. Third, although the president's budget fully funds these activities, cuts due to sequestration can put them at risk.    For major construction projects, NNSA is committed to delivering its capital asset projects on budget and schedule. Over the past four years, NNSA has focused on putting the right policies, principles, people, processes, procedures, and partnerships in place to implement the Office of Management and Budget's (OMB) Circular A-11 for Capital Acquisition Projects, Department of Energy Order 413.3B on project management, and the Secretary's January 2015 enhanced project management policies. In 2013, GAO narrowed the focus of its High Risk list for NNSA to contracts and projects with a Total Project Cost greater than $750 million as a result of the improvements NNSA has been making in its contract and project management. NNSA is confident that the same policies and processes for projects less than $750 million are scalable to the major system acquisition projects at Los Alamos National Laboratory and Y-12.    Following are risks to NNSA's portfolio of construction projects:    &lt;bullet&gt;  Escalation on commodities and equipment procurements    &lt;bullet&gt;  Difficulties attracting and retaining nuclear qualified workers at assumed labor rates    &lt;bullet&gt;  Availability of vendors qualified to produce materials and equipment to meet current nuclear construction standards (NQA-1)    &lt;bullet&gt;  Changes to project requirements, codes, and standards Delays in authorizations to start construction activities</t>
   </si>
   <si>
@@ -485,9 +452,6 @@
   </si>
   <si>
     <t>400411</t>
-  </si>
-  <si>
-    <t>Michael R. Turner</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Turner. The President's budget request clearly supports Uranium enrichment technology. In your opinion, do you find that maintaining the American Centrifuge capability is important?    General Klotz. A reliable supply of enriched uranium is required to meet U.S. national security requirements. Any enrichment technology used to meet these requirements, should the interagency determine that such technology is the best way forward, must be U.S. origin. Enriched uranium provided via foreign technology, even if located in the U.S., may not be used for national security purposes due to international peaceful-use assurances. The President's budget request maintains the operability of the centrifuge technology at the pilot plant in Piketon, OH, and the development and test facility in the East Tennessee Technology Park (ETTP) Building K-1600. Maintaining these near-term domestic-origin technologies that could produce low enriched uranium unencumbered by peaceful-use restrictions is important while U.S. Interagency Policy Committee develops the best path forward to meet our national security requirements for enriched uranium.</t>
@@ -889,11 +853,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -913,13 +875,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -941,11 +901,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -967,11 +925,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -991,13 +947,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1019,11 +973,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1043,13 +995,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1071,11 +1021,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1097,11 +1045,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1123,11 +1069,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1149,11 +1093,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1173,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1199,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1225,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1251,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1277,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1303,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1329,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1355,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1381,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1407,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1433,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1459,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1485,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1511,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1539,11 +1453,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1563,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1589,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1615,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1641,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>44</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1667,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
         <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1693,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1719,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1745,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1771,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1797,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1825,11 +1717,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1849,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1875,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1901,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1927,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1953,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1979,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>58</v>
-      </c>
-      <c r="G44" t="s">
-        <v>59</v>
-      </c>
-      <c r="H44" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2005,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
         <v>59</v>
-      </c>
-      <c r="H45" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2031,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2057,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2083,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2109,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>53</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2135,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2163,11 +2029,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2187,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2213,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>74</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2239,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2265,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2291,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>53</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2317,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2343,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2369,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2397,11 +2245,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2421,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
         <v>76</v>
-      </c>
-      <c r="G61" t="s">
-        <v>77</v>
-      </c>
-      <c r="H61" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2447,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>86</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2473,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2499,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>86</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2525,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2551,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2577,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2605,11 +2437,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2631,11 +2461,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2657,11 +2485,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2683,11 +2509,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2707,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2735,11 +2557,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2759,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2787,11 +2605,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2811,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2839,11 +2653,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2863,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2891,11 +2701,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2915,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2943,11 +2749,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2969,11 +2773,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2995,11 +2797,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3021,11 +2821,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3047,11 +2845,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3073,11 +2869,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3099,11 +2893,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3125,11 +2917,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3151,11 +2941,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3177,11 +2965,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3203,11 +2989,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3229,11 +3013,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3255,11 +3037,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3281,11 +3061,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3307,11 +3085,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3333,11 +3109,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3359,11 +3133,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3385,11 +3157,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3411,11 +3181,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3437,11 +3205,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3463,11 +3229,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3489,11 +3253,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3515,11 +3277,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3541,11 +3301,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3567,11 +3325,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3593,11 +3349,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3619,11 +3373,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3643,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3671,11 +3421,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3695,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3723,11 +3469,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3747,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3775,11 +3517,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3799,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3827,11 +3565,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3851,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3879,11 +3613,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3903,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3929,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3955,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3981,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4007,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4033,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4059,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>149</v>
-      </c>
-      <c r="G124" t="s">
-        <v>150</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4085,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>149</v>
-      </c>
-      <c r="G125" t="s">
-        <v>150</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4111,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>58</v>
-      </c>
-      <c r="G126" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4137,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>58</v>
-      </c>
-      <c r="G127" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4163,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>58</v>
-      </c>
-      <c r="G128" t="s">
-        <v>59</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4189,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>156</v>
-      </c>
-      <c r="G129" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94229.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94229.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Good afternoon. The Subcommittee on Strategic Forces will come to order. I want to welcome you to our hearing on the President's fiscal year 2016 budget request for atomic energy defense activities at the Department of Energy.    I want to thank our witnesses for being here today. We know how much work goes into preparing for these hearings, and we thank you for putting that time and energy into this endeavor. I want to welcome our guests. We have Lieutenant General Frank Klotz, Administrator of National Security Administration--National Nuclear Security [NNSA], a little difference; Mark Whitney, Principal Deputy Assistant Secretary for Environmental Management [EM], U.S. Department of Energy; and Ms. Jessie Hill Roberson, Vice Chairman, Defense Nuclear Facilities Safety Board [DNFSB].    General Klotz, you have a few very able folks in support of you today and I want to recognize them: Dr. Don Cook, Ms. Anne Harrington, and Admiral John Richardson. If any of our members have questions directly for them later in the hearing, we will ensure that they can step up to the table and answer those as needed.    Before I hand the floor over to the ranking member, let me briefly highlight just a few key issues for today's hearing. First, let's be clear on the Nation's defense priorities. Last November, then-Secretary of Defense Chuck Hagel said this: ``Our nuclear deterrent plays a critical role in assuring U.S. national security and it is DOD'S highest priority mission. No other capability we have is more important.'' This is the correct priority, but we must remember that fulfilling the nuclear deterrence mission is the shared responsibility of both DOD [Department of Defense] and DOE [Department of Energy]. It is the people, programs, and infrastructure at NNSA's nuclear enterprise that provides our Nation with that deterrent.    The subcommittee will take a detailed look at NNSA's budget request and scrub it hard to ensure it is meeting the military's priorities. In the fiscal environment we are facing, we must prioritize the core mission of the agency while finding efficiencies that can be directly applied to that mission.    This is a strong budget request for NNSA, but I fear it may have only kicked the hardest choices over to Congress. And we must hear from our witnesses about how devastating sequestration, or Budget Control Act, funding levels would be on DOE's defense programs in both NNSA and Environmental Management. Allowing sequestration to hit us again in fiscal year 2016 would be like designing a nuclear hand grenade--just about the dumbest thing we could do.    Moving to governance and management of DOE and NNSA, we have received a report of the Mies/Augustine Advisory Panel, and I look forward to receiving General Klotz's response to that report. I agree with a lot of what the advisory panel recommended, but not all of it. General, I know there is much you and I agree on in this area as well. I hope to explore your thoughts on where we can work together to fix the longstanding problems related to governance and management. We have to get on top of these problems if the NNSA is going to be successful in the long-term. Leadership and accountability will be the key to this.    Let me end on a bright note. This year, the B61 life extension program continues to execute on time and on budget. General, please tell the whole NNSA team to keep up the good work. This is an important step in rebuilding trust and confidence with Congress and the American people and our allies.    Thank you again to our witnesses. I look forward to the discussion. With that, let me turn it over to my friend and colleague from Tennessee, the ranking member, Mr. Cooper, for any opening statement he may have.    [The prepared statement of Mr. Rogers can be found in the Appendix on page 23.]</t>
   </si>
   <si>
     <t>400081</t>
   </si>
   <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you so much, Mr. Chairman. I, too, welcome the witnesses, and it is a pleasure to work with you on these issues of vital importance to our national security. As you noted, no weapons are more important or more dangerous than these, and we need to make sure that we are doing the best we possibly can to keep them safe, secure, and reliable. I look forward to the testimony of the witnesses.</t>
   </si>
   <si>
@@ -70,12 +85,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Whitney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Whitney. Good afternoon, Chairman Rogers, Ranking Member Cooper, and members of the subcommittee. I am pleased to be here today to represent the Department of Energy's Office of Environmental Management, and to discuss the positive program achievements to date and what we plan to accomplish under the President's fiscal year 2016 budget request.    Our request for $5.818 billion will allow the EM program to continue to make safe cleanup of the environmental legacy a priority, a legacy that was brought about from five decades of nuclear weapons development and government-sponsored nuclear energy research. The request includes $5.055 billion for defense environmental cleanup activities; an additional $472 million for the defense contribution to the Uranium Enrichment Decontamination and Decommissioning Fund; a total of $542 million for the Uranium Enrichment Decontamination and Decommissioning Fund cleanup activities; and $220 million for non-defense environmental cleanup activities.    We continue to make significant cleanup progress. We have produced nearly 4,000 canisters of vitrified high-level waste at Savannah River Site in South Carolina, converting it to a solid glass form suitable for long-term storage or permanent disposal. This is about half the sludge in the Savannah River Site tanks.    At Hanford, we have completed the bulk of the river corridor cleanup project, including more than 500 facilities and 1,000 remediation sites.    The fiscal year 2016 budget request will allow us to continue to make significant progress in our ongoing cleanup priorities of liquid tank waste treatment, and recovery of the Waste Isolation Pilot Plant [WIPP]. For example, the Idaho National Laboratory, the request supports operations of the Integrative Waste Treatment Unit. It also covers and supports cleaning and grouting activities to support closing of the final four tanks there. It also supports high-level waste tank progress at the Savannah River Site, including producing 130 canisters of vitrified waste derived from tanks and processed through the Defense Waste Processing Facility.    The 2016 request will allow us to expedite tank waste treatment at the Office of River Protection in Hanford through the direct-feed low-activity waste approach, and this allows us to continue designing the low-activity waste treatment system, and continuing construction of the low-activity waste facility, the analytical laboratory, and balance of the facilities at the Waste Treatment Plant.    The 2016 request also provides funding in accordance with the Waste Isolation Pilot Plant recovery plan. There are many sites around the EM complex, of course, that depend on the WIPP facility and that have transuranic waste at its plant for disposal.    So that resumption of operations at WIPP is a priority for us, and we will resume waste emplacement activities in 2016. The request also completes major facility clean-out and demolition projects, including the Plutonium Finishing Plant at Hanford.    In closing, I am honored to be here today representing the Office of Environmental Management. We are committed to achieving our mission, and will continue to apply innovative environmental cleanup strategies to complete work safely and efficiently, thereby demonstrating value to the American taxpayer.    Thank you, and I would be pleased to answer any questions that you may have.    [The prepared statement of Mr. Whitney can be found in the Appendix on page 40.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Whitney.    Ms. Roberson, you are recognized for 3 minutes to summarize your opening statement.</t>
   </si>
   <si>
+    <t>Roberson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Roberson. Thank you, Chairman Rogers and Ranking Member Cooper, and other members of the subcommittee. I am the Vice Chairman of the Defense Nuclear Facility Safety Board, and I would like to acknowledge the other two members sitting directly behind me, Mr. Sullivan and Mr. Santos.    Last year's radioactive release at the Waste Isolation Pilot Plant demonstrated the significant impact likely to result from a radiological incident at any DOE defense nuclear facility. Waste disposal operations have already been shut down for over 13 months. This has impacted cleanup activities across DOE's entire defense nuclear complex, and illustrates that even activities judged to be relatively low risk can still have major safety consequences and large impacts on DOE's ability to accomplish its mission when radioactive materials are involved.    The board is the only agency that provides independent safety oversight of DOE's defense nuclear facilities. The board's budget is devoted to maintaining and supporting an expert staff of engineers and scientists, nearly all of whom have advanced technical degrees, to support us in accomplishing our highly specialized work.    The President's budget request for fiscal year 2016 includes $29.15 million in new budget authority for the board. It will support a planned staff of 125 personnel. This level of staffing is needed to provide sufficient independent safety oversight of DOE's defense nuclear complex, given the pace and scope of DOE's activities.    The board provides safety oversight of a multitude of operations critical to national defense. These operations include assembly and disassembly of nuclear weapons, fabrication of plutonium pits and weapons components, production and recycling of tritium, nuclear criticality experiments, sub-critical experiments, and a host of activities to address the radioactive legacy resulting from 70 years of nuclear weapons operations.    The board supports and closely oversees DOE and NNSA's efforts to develop new defense nuclear facilities that integrate safety into their design at the very earliest stages. The delays in NNSA's programs to modernize its uranium and plutonium capabilities require the board to provide continued safety oversight of ongoing defense programs work, and aging nuclear facilities that do not meet modern safety standards.    Given the age and condition of many of DOE's defense nuclear facilities, the board is placing particular emphasis on emergency preparedness and accident response capabilities across the complex.    Let me add in closing that the board and DOE together have built a constructive working relationship. All board members, myself, Mr. Sullivan, and Mr. Santos, understand that a safe nuclear security enterprise is our priority.    That concludes my statement. Thank you.    [The prepared statement of Ms. Roberson can be found in the Appendix on page 50.]</t>
   </si>
   <si>
@@ -139,6 +160,9 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman. And thank you for the distinguished panel being here today and testifying.    General, I think it was last year we got a report from Secretary of Defense Hagel indicating that our requirements for our nuclear capacity was 50 to 80 plutonium pits per year. Is that still the requirement?    General Klotz. That is the objective which we are working for as part of a comprehensive plutonium strategy.    Many, many years ago, when we had the facility at Rocky Flats in California, we had the ability to produce thousands of nuclear weapon pits each year. Of course, that was at the height of the Cold War, when our stockpile was much, much larger than it is today. That facility was shut down. We moved--or tried to demonstrate the ability to develop pits, manufacture pits, fabricate pits at Los Alamos National Laboratory in New Mexico. And we are going through a sustained process of recreating the ability to produce a smaller number of pits per year, ultimately up to 50 to 80 per year, in order to support life extension programs that we see coming in the 2020 to 2030 timeframe as we move there.</t>
   </si>
   <si>
@@ -160,6 +184,9 @@
     <t xml:space="preserve">    Mr. Bridenstine. Will it happen in fiscal year 2015? I guess, will you commit that in fiscal year 2015, fiscal year 2016 we will see movements for the next steps in this program?    General Klotz. We have already had some fairly significant movements in the W80, we call it the W80-4 life extension program [LEP], which will be the warhead that the Nuclear Weapons Council agreed would be the one we would field with the Air Force's long-range standoff capability. We are moving towards----</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Cook. 6.2 on July 1.    General Klotz. So later this year we will take the next step in that process. So this is something which we take very, very seriously.</t>
   </si>
   <si>
@@ -175,6 +202,12 @@
     <t>412382</t>
   </si>
   <si>
+    <t>Garamendi</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you, Mr. Chairman. And, gentlemen, thank you for your work.    Just to continue following up on the previous questions, it looks like we are somewhere north of $17 billion for the W80-4 nuclear warhead LEP program, and the cruise missile that goes with it. You have accelerated this discussion by, I think, an incomplete answer. Why was the 2-year acceleration required?    General Klotz. The acceleration, moving it up 2 years from 2027 to 2025 for the first production unit was taken largely at the request of the Department of Defense, U.S. Strategic Command, and the Air Force for an early delivery of the capability which the long-range standoff system represents.    As Admiral Haney, the commander of U.S. Strategic Command, has said in open testimony, basically it reflects two concerns: One is the increasing sophistication of air defenses around the world; and the second is some concerns about the aging of the missile, that is the current air-launched cruise missile.    So they felt it was prudent from a military requirements point of view to move that up. And we support them on that. And, in fact, perhaps more detail than is needed, but it actually fits in very, very nicely with our work schedule and it will allow us to have sort of a smoother approach to how we do the life extension programs over an extended period of time.</t>
   </si>
   <si>
@@ -217,12 +250,21 @@
     <t xml:space="preserve">    Mr. Garamendi. And I will come back. Thank you.</t>
   </si>
   <si>
+    <t>Frelinghuysen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Frelinghuysen. Chair now recognizes the gentleman from Colorado, Mr. Lamborn, for 5 minutes.</t>
   </si>
   <si>
     <t>412191</t>
   </si>
   <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman. Thank all for being here. Thank you for your service to our country. And I am just going to jump right in, General Klotz. You have talked about the responsive infrastructure and you have been asked about that. Isn't that lacking, because there is a key uranium facility and a key plutonium facility that need to be planned and built, and we are not doing that?    General Klotz. We could take--we are working on both of those, and we can take them separately. On the plutonium side, as I indicated earlier in an earlier response, we had the capability at one time at Rocky Flats in Colorado to produce literally thousands of pits per year for a much larger stockpile than we now have. We no longer have that kind of capacity, and we foresee a need in the future for being able to produce a greater number of pits than we can do on basically a handful a year now at Los Alamos. So we are building up that capability.    What has changed from the past is, at one time we were looking at constructing one large facility to replace an aging facility where we did analytical chemistry and material characterization related to plutonium at Los Alamos, and now we have adopted a more modular approach, re-purposing some existing facilities, moving equipment around, and beginning the process of design for some external modules, which will allow us to increase the capacity of space that we have. So that is underway. We have got money in the budget, we have an ask and a request for that.</t>
   </si>
   <si>
@@ -247,6 +289,9 @@
     <t xml:space="preserve">    Mr. Lamborn. Okay. I will just ask this question. And thank you, Mr. Chairman, I have to run to the floor on what they are discussing right now, but my question is this: On low-enriched uranium, there are some who talk about, well, that can be used as a substitute for highly enriched uranium. Is there really any promising future to a military capability for low-enriched uranium?</t>
   </si>
   <si>
+    <t>Richardson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Richardson. Sir, thank you very much for your kind words and thank you for the question. We do produce a report to Congress about the feasibility of using low-enriched uranium. I have a copy of that report here which I submitted in January of 2014. And with the current state of technology right now, if we were to substitute low-enriched uranium, it would only be even technically considered for an aircraft carrier application.    And, because of the reduced energy in the low-enriched uranium, with the current technology, we would introduce another refueling event in the life of that carrier. That refueling event would come at a cost of about a billion dollars and would remove that carrier from being at sea while it comes into the shipyard to do that refueling operation as well.    We have done some recent exploratory work, and, you know, the potential exists that we could develop an advanced fuel system that might increase uranium loading and make low-enriched uranium possible while still meeting, you know, some very rigorous performance requirements for naval reactors on nuclear-powered warships. By no means is success assured by that.</t>
   </si>
   <si>
@@ -436,6 +481,12 @@
     <t>400232</t>
   </si>
   <si>
+    <t>Larsen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Larsen. General Klotz, what are the risks of NNSA modernization plan, including executing 4-5 concurrent life-extension programs and overseeing major construction projects at Y-12 and Los Alamos National Laboratory in the 2020s?    General Klotz. NNSA has developed long term modernization efforts for the nuclear security enterprise described in the FY 2016 Stockpile Stewardship and Management Plan. Modernization efforts for warheads through approved Life Extension Programs face a number of risks. First, the ability to certify designs that include new or updated material combinations or surety features is a challenge for life extension programs in the absence of underground testing. To address this challenge, the national security laboratories have improved their fundamental understanding of physics package interactions through numerous enhanced physics experiments, greater computing power, and advanced simulations. Second, NNSA must mature technologies and components to transform the stockpile over the next twenty years. Technology maturation enables development and delivery of design-to-manufacturing capabilities to meeting current and future nuclear weapons needs for the Nation's stockpile. NNSA uses the Component Maturation Framework, which is a portfolio management tool used to integrate preliminary scope, proposed technology and manufacturing readiness levels, and planning estimates, to inform decisions on component development, technology maturation and timely insertion. NNSA is establishing plans to mature technologies sufficiently in advance of planned insertion points to cost-effectively minimize risk. Third, although the president's budget fully funds these activities, cuts due to sequestration can put them at risk.    For major construction projects, NNSA is committed to delivering its capital asset projects on budget and schedule. Over the past four years, NNSA has focused on putting the right policies, principles, people, processes, procedures, and partnerships in place to implement the Office of Management and Budget's (OMB) Circular A-11 for Capital Acquisition Projects, Department of Energy Order 413.3B on project management, and the Secretary's January 2015 enhanced project management policies. In 2013, GAO narrowed the focus of its High Risk list for NNSA to contracts and projects with a Total Project Cost greater than $750 million as a result of the improvements NNSA has been making in its contract and project management. NNSA is confident that the same policies and processes for projects less than $750 million are scalable to the major system acquisition projects at Los Alamos National Laboratory and Y-12.    Following are risks to NNSA's portfolio of construction projects:    &lt;bullet&gt;  Escalation on commodities and equipment procurements    &lt;bullet&gt;  Difficulties attracting and retaining nuclear qualified workers at assumed labor rates    &lt;bullet&gt;  Availability of vendors qualified to produce materials and equipment to meet current nuclear construction standards (NQA-1)    &lt;bullet&gt;  Changes to project requirements, codes, and standards Delays in authorizations to start construction activities</t>
   </si>
   <si>
@@ -452,6 +503,12 @@
   </si>
   <si>
     <t>400411</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Michael</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Turner. The President's budget request clearly supports Uranium enrichment technology. In your opinion, do you find that maintaining the American Centrifuge capability is important?    General Klotz. A reliable supply of enriched uranium is required to meet U.S. national security requirements. Any enrichment technology used to meet these requirements, should the interagency determine that such technology is the best way forward, must be U.S. origin. Enriched uranium provided via foreign technology, even if located in the U.S., may not be used for national security purposes due to international peaceful-use assurances. The President's budget request maintains the operability of the centrifuge technology at the pilot plant in Piketon, OH, and the development and test facility in the East Tennessee Technology Park (ETTP) Building K-1600. Maintaining these near-term domestic-origin technologies that could produce low enriched uranium unencumbered by peaceful-use restrictions is important while U.S. Interagency Policy Committee develops the best path forward to meet our national security requirements for enriched uranium.</t>
@@ -803,7 +860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +868,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,3077 +890,3670 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
+      <c r="G14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G45" t="s">
+        <v>62</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G47" t="s">
+        <v>62</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G65" t="s">
+        <v>81</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
       <c r="H67" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G112" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G116" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G118" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
       <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
       <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
       <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
       <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
       <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>139</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>154</v>
+      </c>
+      <c r="G124" t="s">
+        <v>155</v>
+      </c>
       <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>156</v>
+      </c>
+      <c r="I124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>139</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>154</v>
+      </c>
+      <c r="G125" t="s">
+        <v>155</v>
+      </c>
       <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>156</v>
+      </c>
+      <c r="I125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>52</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G126" t="s">
+        <v>62</v>
+      </c>
       <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>52</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G127" t="s">
+        <v>62</v>
+      </c>
       <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>52</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G128" t="s">
+        <v>62</v>
+      </c>
       <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>145</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="G129" t="s">
+        <v>163</v>
+      </c>
       <c r="H129" t="s">
-        <v>146</v>
+        <v>164</v>
+      </c>
+      <c r="I129" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94229.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94229.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Rogers</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400081</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Cooper</t>
   </si>
   <si>
@@ -160,6 +169,9 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Bridenstine</t>
   </si>
   <si>
@@ -257,6 +269,9 @@
   </si>
   <si>
     <t>412191</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Lamborn</t>
@@ -860,7 +875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,7 +883,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,3667 +908,4004 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G39" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G50" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I58" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>91</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>96</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>91</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>91</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G67" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>23</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>23</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>26</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s">
-        <v>26</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>29</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s">
-        <v>26</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>29</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s">
-        <v>26</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" t="s">
-        <v>26</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>29</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G121" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H121" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I121" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G124" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="H124" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I124" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G125" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="H125" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I125" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G126" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H126" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I126" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G127" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H127" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I127" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G128" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H128" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I128" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G129" t="s">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="H129" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I129" t="s">
-        <v>165</v>
+        <v>169</v>
+      </c>
+      <c r="J129" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
